--- a/public/pdsv2.xlsx
+++ b/public/pdsv2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milla\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cenro\PMS-intern\rsp-hr-tagum-cityhall\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC92654F-17C5-47D1-9762-EB32B506A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A2DE8-7C75-4E0F-8152-CB8F80843609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal Information" sheetId="16" r:id="rId1"/>
@@ -35,9 +35,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1152,7 +1149,7 @@
     <numFmt numFmtId="166" formatCode=";;;"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1491,12 +1488,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2895,65 +2886,129 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2961,173 +3016,46 @@
     <xf numFmtId="49" fontId="25" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3157,6 +3085,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3193,152 +3133,264 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3352,6 +3404,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3367,70 +3431,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3639,53 +3643,29 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3693,198 +3673,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3899,6 +3722,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3911,56 +3740,218 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3997,31 +3988,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$5" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$5" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$5" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$5" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$6" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$6" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$6" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$6" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$18" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$18" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$18" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$18" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$21" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4029,43 +4020,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$21" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$21" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$21" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$30" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$30" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$30" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$30" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$34" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$34" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$34" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$34" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$38" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$38" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$24" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$24" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$24" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$24" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$26" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$26" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$26" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4073,34 +4064,30 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$26" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$9" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$9" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$9" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$9" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$38" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$38" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$36" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$36" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$36" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$36" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$12" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$12" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$12" noThreeD="1"/>
 </file>
 
@@ -4761,15 +4748,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>297180</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>297180</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4824,15 +4811,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
+          <xdr:colOff>441960</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:colOff>297180</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4881,7 +4868,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4917,9 +4904,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4968,7 +4955,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4998,7 +4985,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:from>
@@ -5006,7 +4993,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>297180</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5055,7 +5042,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5085,7 +5072,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -5093,7 +5080,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>312420</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5142,7 +5129,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5174,13 +5161,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:colOff>670560</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5229,7 +5216,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5259,15 +5246,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5316,7 +5303,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5346,15 +5333,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5403,7 +5390,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5435,13 +5422,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:colOff>274320</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>220980</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5490,7 +5477,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5520,13 +5507,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -5577,7 +5564,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5607,13 +5594,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -5664,7 +5651,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5694,15 +5681,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5751,7 +5738,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5772,75 +5759,6 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>153292</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>136326</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>492918</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>174426</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22545" name="Button 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s22545"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011580000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-PH" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                  <a:cs typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Insert profle image here</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -6229,15 +6147,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>632460</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>213360</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6286,7 +6204,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6324,7 +6242,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>213360</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6373,7 +6291,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6403,15 +6321,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>632460</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6460,7 +6378,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6498,7 +6416,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6547,7 +6465,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6579,13 +6497,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6634,7 +6552,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6666,13 +6584,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>502920</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6721,7 +6639,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6751,15 +6669,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>106680</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
+          <xdr:colOff>601980</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>297180</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6808,7 +6726,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6840,13 +6758,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>502920</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>297180</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6895,7 +6813,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6925,15 +6843,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6982,7 +6900,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7014,13 +6932,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>502920</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7069,7 +6987,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7101,13 +7019,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7156,7 +7074,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7188,13 +7106,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>502920</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7243,7 +7161,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7275,13 +7193,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7330,7 +7248,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7360,13 +7278,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
+          <xdr:colOff>601980</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -7417,7 +7335,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7447,15 +7365,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>83820</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7504,7 +7422,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7534,15 +7452,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7591,7 +7509,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7629,7 +7547,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>297180</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7678,7 +7596,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7714,9 +7632,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>502920</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>297180</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7765,7 +7683,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7795,15 +7713,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
+          <xdr:colOff>617220</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7852,7 +7770,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7882,15 +7800,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7939,7 +7857,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7975,7 +7893,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -8026,7 +7944,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8058,13 +7976,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8113,7 +8031,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8381,13 +8299,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>502920</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8436,7 +8354,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8468,13 +8386,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8523,7 +8441,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8813,46 +8731,46 @@
   <dimension ref="A1:V263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="82" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="82" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="82" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="82" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="82" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="82" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="82" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="82" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="82" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="82" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="82" customWidth="1"/>
     <col min="8" max="8" width="10" style="82" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="82" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="82" customWidth="1"/>
     <col min="10" max="10" width="11" style="82" customWidth="1"/>
     <col min="11" max="11" width="8" style="82" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="82" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="82" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="82" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="82" customWidth="1"/>
     <col min="15" max="15" width="14" style="82" customWidth="1"/>
     <col min="16" max="17" width="14" style="82" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="82" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="82"/>
+    <col min="19" max="16384" width="9.109375" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="2.25" customHeight="1">
-      <c r="A1" s="311"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
+      <c r="A1" s="215"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
     </row>
     <row r="2" spans="1:22" ht="11.25" customHeight="1">
       <c r="A2" s="83"/>
@@ -8882,73 +8800,73 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="41.25" customHeight="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="298"/>
-      <c r="T3" s="298"/>
-      <c r="U3" s="298"/>
-      <c r="V3" s="299"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="220"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="204"/>
     </row>
     <row r="4" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="318"/>
-      <c r="C4" s="318"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="318"/>
-      <c r="F4" s="318"/>
-      <c r="G4" s="318"/>
-      <c r="H4" s="318"/>
-      <c r="I4" s="318"/>
-      <c r="J4" s="318"/>
-      <c r="K4" s="318"/>
-      <c r="L4" s="318"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="319"/>
-      <c r="R4" s="300"/>
-      <c r="S4" s="301"/>
-      <c r="T4" s="301"/>
-      <c r="U4" s="301"/>
-      <c r="V4" s="302"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="223"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="206"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A5" s="320" t="s">
+      <c r="A5" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="321"/>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
-      <c r="N5" s="322"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="301"/>
-      <c r="T5" s="301"/>
-      <c r="U5" s="301"/>
-      <c r="V5" s="302"/>
+      <c r="B5" s="225"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="225"/>
+      <c r="M5" s="225"/>
+      <c r="N5" s="226"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="206"/>
     </row>
     <row r="6" spans="1:22" ht="3" hidden="1" customHeight="1">
       <c r="A6" s="85"/>
@@ -8965,11 +8883,11 @@
       <c r="L6" s="87"/>
       <c r="M6" s="87"/>
       <c r="N6" s="118"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="301"/>
-      <c r="T6" s="301"/>
-      <c r="U6" s="301"/>
-      <c r="V6" s="302"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="200"/>
+      <c r="V6" s="206"/>
     </row>
     <row r="7" spans="1:22" s="80" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A7" s="88" t="s">
@@ -8987,198 +8905,198 @@
       <c r="K7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="323" t="s">
+      <c r="L7" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="324"/>
-      <c r="N7" s="325"/>
-      <c r="R7" s="300"/>
-      <c r="S7" s="301"/>
-      <c r="T7" s="301"/>
-      <c r="U7" s="301"/>
-      <c r="V7" s="302"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="229"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="206"/>
     </row>
     <row r="8" spans="1:22" ht="2.25" customHeight="1" thickBot="1">
       <c r="A8" s="91"/>
       <c r="N8" s="121"/>
-      <c r="R8" s="300"/>
-      <c r="S8" s="301"/>
-      <c r="T8" s="301"/>
-      <c r="U8" s="301"/>
-      <c r="V8" s="302"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="206"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="326" t="s">
+      <c r="A9" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="327"/>
-      <c r="C9" s="327"/>
-      <c r="D9" s="327"/>
-      <c r="E9" s="327"/>
-      <c r="F9" s="327"/>
-      <c r="G9" s="327"/>
-      <c r="H9" s="327"/>
-      <c r="I9" s="327"/>
-      <c r="J9" s="327"/>
-      <c r="K9" s="327"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="328"/>
-      <c r="R9" s="300"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="302"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="231"/>
+      <c r="N9" s="232"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
+      <c r="U9" s="200"/>
+      <c r="V9" s="206"/>
     </row>
     <row r="10" spans="1:22" ht="22.5" customHeight="1">
       <c r="A10" s="92">
         <v>2</v>
       </c>
-      <c r="B10" s="215" t="s">
+      <c r="B10" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="203"/>
-      <c r="D10" s="329"/>
-      <c r="E10" s="329"/>
-      <c r="F10" s="329"/>
-      <c r="G10" s="329"/>
-      <c r="H10" s="329"/>
-      <c r="I10" s="329"/>
-      <c r="J10" s="329"/>
-      <c r="K10" s="329"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="330"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="235"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="235"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="235"/>
+      <c r="N10" s="236"/>
       <c r="P10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="300"/>
-      <c r="S10" s="301"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="301"/>
-      <c r="V10" s="302"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="200"/>
+      <c r="T10" s="200"/>
+      <c r="U10" s="200"/>
+      <c r="V10" s="206"/>
     </row>
     <row r="11" spans="1:22" ht="22.5" customHeight="1">
       <c r="A11" s="93"/>
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="331"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="333"/>
-      <c r="I11" s="334" t="s">
+      <c r="C11" s="238"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="335"/>
-      <c r="K11" s="335"/>
-      <c r="L11" s="336"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="338"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="244"/>
+      <c r="M11" s="245"/>
+      <c r="N11" s="246"/>
       <c r="P11" s="123" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="300"/>
-      <c r="S11" s="301"/>
-      <c r="T11" s="301"/>
-      <c r="U11" s="301"/>
-      <c r="V11" s="302"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="200"/>
+      <c r="T11" s="200"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="206"/>
     </row>
     <row r="12" spans="1:22" ht="21.75" customHeight="1" thickBot="1">
       <c r="A12" s="77"/>
-      <c r="B12" s="306" t="s">
+      <c r="B12" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="307"/>
-      <c r="D12" s="308"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="309"/>
-      <c r="N12" s="310"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="214"/>
       <c r="P12" s="123" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="300"/>
-      <c r="S12" s="301"/>
-      <c r="T12" s="301"/>
-      <c r="U12" s="301"/>
-      <c r="V12" s="302"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="200"/>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="206"/>
     </row>
     <row r="13" spans="1:22" ht="24" customHeight="1">
       <c r="A13" s="94">
         <v>3</v>
       </c>
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="325" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="215" t="s">
+      <c r="C13" s="234"/>
+      <c r="D13" s="333"/>
+      <c r="E13" s="334"/>
+      <c r="F13" s="334"/>
+      <c r="G13" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="215"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="218" t="b">
+      <c r="H13" s="233"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="337" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219" t="b">
+      <c r="K13" s="338"/>
+      <c r="L13" s="338" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="219"/>
-      <c r="N13" s="220"/>
+      <c r="M13" s="338"/>
+      <c r="N13" s="339"/>
       <c r="P13" s="123" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="303"/>
-      <c r="S13" s="304"/>
-      <c r="T13" s="304"/>
-      <c r="U13" s="304"/>
-      <c r="V13" s="305"/>
+      <c r="R13" s="207"/>
+      <c r="S13" s="208"/>
+      <c r="T13" s="208"/>
+      <c r="U13" s="208"/>
+      <c r="V13" s="209"/>
     </row>
     <row r="14" spans="1:22" ht="21.6" customHeight="1">
       <c r="A14" s="93"/>
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="221" t="b">
+      <c r="D14" s="335"/>
+      <c r="E14" s="336"/>
+      <c r="F14" s="336"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="340" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="222"/>
-      <c r="L14" s="222" t="b">
+      <c r="K14" s="341"/>
+      <c r="L14" s="341" t="b">
         <v>0</v>
       </c>
-      <c r="M14" s="222"/>
-      <c r="N14" s="223"/>
+      <c r="M14" s="341"/>
+      <c r="N14" s="342"/>
       <c r="P14" s="123"/>
       <c r="Q14" s="125"/>
-      <c r="S14" s="298"/>
-      <c r="T14" s="298"/>
-      <c r="U14" s="298"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15" spans="1:22" ht="24.75" customHeight="1">
       <c r="A15" s="96">
@@ -9188,30 +9106,30 @@
         <v>24</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="206" t="s">
+      <c r="D15" s="326"/>
+      <c r="E15" s="326"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="328" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208" t="s">
+      <c r="H15" s="329"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="330" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="209"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="210"/>
+      <c r="K15" s="331"/>
+      <c r="L15" s="331"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="332"/>
       <c r="P15" s="123" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="301"/>
-      <c r="T15" s="301"/>
-      <c r="U15" s="301"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16" spans="1:22" ht="24.75" customHeight="1">
       <c r="A16" s="98">
@@ -9224,22 +9142,22 @@
       <c r="D16" s="99" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="278" t="b">
+      <c r="E16" s="255" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="279"/>
-      <c r="G16" s="280" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="281"/>
-      <c r="I16" s="282"/>
-      <c r="J16" s="199">
+      <c r="H16" s="258"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="322">
         <v>173</v>
       </c>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="200"/>
-      <c r="N16" s="201"/>
+      <c r="K16" s="323"/>
+      <c r="L16" s="323"/>
+      <c r="M16" s="323"/>
+      <c r="N16" s="324"/>
       <c r="O16" s="130"/>
       <c r="P16" s="123" t="s">
         <v>31</v>
@@ -9249,62 +9167,62 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="27" customHeight="1">
-      <c r="A17" s="227">
+      <c r="A17" s="308">
         <v>6</v>
       </c>
-      <c r="B17" s="238" t="s">
+      <c r="B17" s="318" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="239"/>
+      <c r="C17" s="319"/>
       <c r="D17" s="189" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="290" t="b">
+      <c r="E17" s="271" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="291"/>
+      <c r="F17" s="272"/>
       <c r="G17" s="100" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="101"/>
-      <c r="I17" s="538" t="s">
+      <c r="I17" s="247" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="264"/>
-      <c r="K17" s="264"/>
-      <c r="L17" s="539" t="s">
+      <c r="J17" s="248"/>
+      <c r="K17" s="248"/>
+      <c r="L17" s="249" t="s">
         <v>345</v>
       </c>
-      <c r="M17" s="264"/>
-      <c r="N17" s="265"/>
+      <c r="M17" s="248"/>
+      <c r="N17" s="250"/>
       <c r="Q17" s="125" t="s">
         <v>35</v>
       </c>
       <c r="R17" s="129"/>
     </row>
     <row r="18" spans="1:19" ht="27" customHeight="1">
-      <c r="A18" s="228"/>
-      <c r="B18" s="240"/>
-      <c r="C18" s="241"/>
+      <c r="A18" s="309"/>
+      <c r="B18" s="320"/>
+      <c r="C18" s="321"/>
       <c r="D18" s="190" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="295" t="s">
+      <c r="E18" s="201" t="s">
         <v>344</v>
       </c>
-      <c r="F18" s="296"/>
+      <c r="F18" s="202"/>
       <c r="G18" s="103"/>
       <c r="H18" s="76"/>
-      <c r="I18" s="261" t="s">
+      <c r="I18" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="262"/>
-      <c r="K18" s="262"/>
-      <c r="L18" s="262" t="s">
+      <c r="J18" s="261"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="262"/>
-      <c r="N18" s="263"/>
+      <c r="M18" s="261"/>
+      <c r="N18" s="262"/>
       <c r="Q18" s="125" t="s">
         <v>38</v>
       </c>
@@ -9313,23 +9231,23 @@
       <c r="A19" s="92"/>
       <c r="B19" s="104"/>
       <c r="C19" s="102"/>
-      <c r="D19" s="295" t="b">
+      <c r="D19" s="201" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="295"/>
-      <c r="F19" s="296"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="202"/>
       <c r="G19" s="103"/>
       <c r="H19" s="76"/>
-      <c r="I19" s="249" t="s">
+      <c r="I19" s="305" t="s">
         <v>345</v>
       </c>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="225" t="s">
+      <c r="J19" s="317"/>
+      <c r="K19" s="317"/>
+      <c r="L19" s="263" t="s">
         <v>345</v>
       </c>
-      <c r="M19" s="283"/>
-      <c r="N19" s="284"/>
+      <c r="M19" s="264"/>
+      <c r="N19" s="265"/>
       <c r="Q19" s="125" t="s">
         <v>39</v>
       </c>
@@ -9338,71 +9256,71 @@
       <c r="A20" s="105"/>
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
-      <c r="D20" s="292"/>
-      <c r="E20" s="293"/>
-      <c r="F20" s="294"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="274"/>
+      <c r="F20" s="275"/>
       <c r="G20" s="93"/>
       <c r="H20" s="73"/>
-      <c r="I20" s="285" t="s">
+      <c r="I20" s="266" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="286"/>
-      <c r="K20" s="286"/>
-      <c r="L20" s="287" t="s">
+      <c r="J20" s="267"/>
+      <c r="K20" s="267"/>
+      <c r="L20" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="288"/>
-      <c r="N20" s="289"/>
+      <c r="M20" s="269"/>
+      <c r="N20" s="270"/>
       <c r="Q20" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="30.75" customHeight="1">
-      <c r="A21" s="228">
+      <c r="A21" s="309">
         <v>7</v>
       </c>
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="311" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="231"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="236"/>
+      <c r="C21" s="312"/>
+      <c r="D21" s="316"/>
+      <c r="E21" s="316"/>
+      <c r="F21" s="316"/>
       <c r="G21" s="93"/>
       <c r="H21" s="73"/>
-      <c r="I21" s="538" t="s">
+      <c r="I21" s="247" t="s">
         <v>345</v>
       </c>
-      <c r="J21" s="264"/>
-      <c r="K21" s="264"/>
-      <c r="L21" s="539" t="s">
+      <c r="J21" s="248"/>
+      <c r="K21" s="248"/>
+      <c r="L21" s="249" t="s">
         <v>345</v>
       </c>
-      <c r="M21" s="264"/>
-      <c r="N21" s="265"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="250"/>
       <c r="Q21" s="125" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A22" s="229"/>
-      <c r="B22" s="232"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="235"/>
-      <c r="E22" s="235"/>
-      <c r="F22" s="235"/>
+      <c r="A22" s="310"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="314"/>
+      <c r="D22" s="315"/>
+      <c r="E22" s="315"/>
+      <c r="F22" s="315"/>
       <c r="G22" s="93"/>
       <c r="H22" s="73"/>
-      <c r="I22" s="274" t="s">
+      <c r="I22" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="275"/>
-      <c r="K22" s="275"/>
-      <c r="L22" s="276" t="s">
+      <c r="J22" s="252"/>
+      <c r="K22" s="252"/>
+      <c r="L22" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="276"/>
-      <c r="N22" s="277"/>
+      <c r="M22" s="253"/>
+      <c r="N22" s="254"/>
       <c r="Q22" s="125" t="s">
         <v>47</v>
       </c>
@@ -9411,180 +9329,180 @@
       <c r="A23" s="92">
         <v>8</v>
       </c>
-      <c r="B23" s="270" t="s">
+      <c r="B23" s="276" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="256" t="s">
+      <c r="C23" s="277"/>
+      <c r="D23" s="278"/>
+      <c r="E23" s="278"/>
+      <c r="F23" s="278"/>
+      <c r="G23" s="279" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="257"/>
-      <c r="I23" s="271" t="s">
+      <c r="H23" s="280"/>
+      <c r="I23" s="281" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="272"/>
-      <c r="K23" s="272"/>
-      <c r="L23" s="272"/>
-      <c r="M23" s="272"/>
-      <c r="N23" s="273"/>
+      <c r="J23" s="282"/>
+      <c r="K23" s="282"/>
+      <c r="L23" s="282"/>
+      <c r="M23" s="282"/>
+      <c r="N23" s="283"/>
       <c r="Q23" s="125" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="30.75" customHeight="1">
-      <c r="A24" s="227">
+      <c r="A24" s="308">
         <v>9</v>
       </c>
-      <c r="B24" s="230" t="s">
+      <c r="B24" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="231"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
+      <c r="C24" s="312"/>
+      <c r="D24" s="296"/>
+      <c r="E24" s="296"/>
+      <c r="F24" s="296"/>
       <c r="G24" s="110" t="s">
         <v>53</v>
       </c>
       <c r="H24" s="108"/>
-      <c r="I24" s="538" t="s">
+      <c r="I24" s="247" t="s">
         <v>345</v>
       </c>
-      <c r="J24" s="264"/>
-      <c r="K24" s="264"/>
-      <c r="L24" s="539" t="s">
+      <c r="J24" s="248"/>
+      <c r="K24" s="248"/>
+      <c r="L24" s="249" t="s">
         <v>345</v>
       </c>
-      <c r="M24" s="264"/>
-      <c r="N24" s="265"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="250"/>
       <c r="Q24" s="125" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A25" s="229"/>
-      <c r="B25" s="232"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
+      <c r="A25" s="310"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="315"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
       <c r="G25" s="93"/>
       <c r="H25" s="73"/>
-      <c r="I25" s="261" t="s">
+      <c r="I25" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="262"/>
-      <c r="K25" s="262"/>
-      <c r="L25" s="262" t="s">
+      <c r="J25" s="261"/>
+      <c r="K25" s="261"/>
+      <c r="L25" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="262"/>
-      <c r="N25" s="263"/>
+      <c r="M25" s="261"/>
+      <c r="N25" s="262"/>
       <c r="Q25" s="125" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A26" s="227">
+      <c r="A26" s="308">
         <v>10</v>
       </c>
-      <c r="B26" s="230" t="s">
+      <c r="B26" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="231"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
+      <c r="C26" s="312"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="296"/>
+      <c r="F26" s="296"/>
       <c r="G26" s="103"/>
       <c r="H26" s="76"/>
-      <c r="I26" s="538" t="s">
+      <c r="I26" s="247" t="s">
         <v>345</v>
       </c>
-      <c r="J26" s="264"/>
-      <c r="K26" s="264"/>
-      <c r="L26" s="539" t="s">
+      <c r="J26" s="248"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="249" t="s">
         <v>345</v>
       </c>
-      <c r="M26" s="264"/>
-      <c r="N26" s="265"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="250"/>
       <c r="Q26" s="125" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="35.25" customHeight="1">
-      <c r="A27" s="229"/>
-      <c r="B27" s="232"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="235"/>
+      <c r="A27" s="310"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="315"/>
+      <c r="E27" s="315"/>
+      <c r="F27" s="315"/>
       <c r="G27" s="103"/>
       <c r="H27" s="76"/>
-      <c r="I27" s="266" t="s">
+      <c r="I27" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="267"/>
-      <c r="K27" s="267"/>
-      <c r="L27" s="268" t="s">
+      <c r="J27" s="285"/>
+      <c r="K27" s="285"/>
+      <c r="L27" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="267"/>
-      <c r="N27" s="269"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="287"/>
       <c r="Q27" s="125" t="s">
         <v>58</v>
       </c>
       <c r="S27" s="128"/>
     </row>
     <row r="28" spans="1:19" ht="33" customHeight="1">
-      <c r="A28" s="227">
+      <c r="A28" s="308">
         <v>11</v>
       </c>
-      <c r="B28" s="230" t="s">
+      <c r="B28" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="231"/>
-      <c r="D28" s="541" t="s">
+      <c r="C28" s="312"/>
+      <c r="D28" s="295" t="s">
         <v>345</v>
       </c>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
+      <c r="E28" s="296"/>
+      <c r="F28" s="296"/>
       <c r="G28" s="103"/>
       <c r="H28" s="62"/>
-      <c r="I28" s="250" t="s">
+      <c r="I28" s="288" t="s">
         <v>345</v>
       </c>
-      <c r="J28" s="251"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="540" t="s">
+      <c r="J28" s="289"/>
+      <c r="K28" s="289"/>
+      <c r="L28" s="290" t="s">
         <v>345</v>
       </c>
-      <c r="M28" s="252"/>
-      <c r="N28" s="253"/>
+      <c r="M28" s="291"/>
+      <c r="N28" s="292"/>
       <c r="Q28" s="125" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A29" s="229"/>
-      <c r="B29" s="232"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="235"/>
+      <c r="A29" s="310"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="314"/>
+      <c r="D29" s="315"/>
+      <c r="E29" s="315"/>
+      <c r="F29" s="315"/>
       <c r="G29" s="103"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="254" t="s">
+      <c r="I29" s="293" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="254"/>
-      <c r="K29" s="254"/>
-      <c r="L29" s="254" t="s">
+      <c r="J29" s="293"/>
+      <c r="K29" s="293"/>
+      <c r="L29" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="254"/>
-      <c r="N29" s="255"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="294"/>
       <c r="Q29" s="125" t="s">
         <v>61</v>
       </c>
@@ -9597,21 +9515,21 @@
         <v>62</v>
       </c>
       <c r="C30" s="67"/>
-      <c r="D30" s="541" t="s">
+      <c r="D30" s="295" t="s">
         <v>345</v>
       </c>
-      <c r="E30" s="234"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="256" t="s">
+      <c r="E30" s="296"/>
+      <c r="F30" s="296"/>
+      <c r="G30" s="279" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="257"/>
-      <c r="I30" s="258"/>
-      <c r="J30" s="259"/>
-      <c r="K30" s="259"/>
-      <c r="L30" s="259"/>
-      <c r="M30" s="259"/>
-      <c r="N30" s="260"/>
+      <c r="H30" s="280"/>
+      <c r="I30" s="297"/>
+      <c r="J30" s="298"/>
+      <c r="K30" s="298"/>
+      <c r="L30" s="298"/>
+      <c r="M30" s="298"/>
+      <c r="N30" s="299"/>
       <c r="Q30" s="125" t="s">
         <v>63</v>
       </c>
@@ -9624,44 +9542,44 @@
         <v>64</v>
       </c>
       <c r="C31" s="67"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="242"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="278"/>
+      <c r="F31" s="278"/>
       <c r="G31" s="111" t="s">
         <v>65</v>
       </c>
       <c r="H31" s="109"/>
-      <c r="I31" s="243" t="s">
+      <c r="I31" s="300" t="s">
         <v>345</v>
       </c>
-      <c r="J31" s="244"/>
-      <c r="K31" s="244"/>
-      <c r="L31" s="244"/>
-      <c r="M31" s="244"/>
-      <c r="N31" s="245"/>
+      <c r="J31" s="301"/>
+      <c r="K31" s="301"/>
+      <c r="L31" s="301"/>
+      <c r="M31" s="301"/>
+      <c r="N31" s="302"/>
       <c r="Q31" s="125" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="39.75" customHeight="1">
-      <c r="A32" s="246" t="s">
+      <c r="A32" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="247"/>
-      <c r="C32" s="248"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
       <c r="G32" s="112" t="s">
         <v>68</v>
       </c>
       <c r="H32" s="113"/>
-      <c r="I32" s="249"/>
-      <c r="J32" s="225"/>
-      <c r="K32" s="225"/>
-      <c r="L32" s="225"/>
-      <c r="M32" s="225"/>
-      <c r="N32" s="226"/>
+      <c r="I32" s="305"/>
+      <c r="J32" s="263"/>
+      <c r="K32" s="263"/>
+      <c r="L32" s="263"/>
+      <c r="M32" s="263"/>
+      <c r="N32" s="306"/>
       <c r="Q32" s="125" t="s">
         <v>69</v>
       </c>
@@ -9677,12 +9595,12 @@
         <v>70</v>
       </c>
       <c r="H33" s="109"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="225"/>
-      <c r="K33" s="225"/>
-      <c r="L33" s="225"/>
-      <c r="M33" s="225"/>
-      <c r="N33" s="226"/>
+      <c r="I33" s="307"/>
+      <c r="J33" s="263"/>
+      <c r="K33" s="263"/>
+      <c r="L33" s="263"/>
+      <c r="M33" s="263"/>
+      <c r="N33" s="306"/>
       <c r="Q33" s="125" t="s">
         <v>71</v>
       </c>
@@ -9784,27 +9702,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="21.95" customHeight="1">
+    <row r="53" spans="1:17" ht="21.9" customHeight="1">
       <c r="Q53" s="125" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="21.95" customHeight="1">
+    <row r="54" spans="1:17" ht="21.9" customHeight="1">
       <c r="Q54" s="125" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="21.95" customHeight="1">
+    <row r="55" spans="1:17" ht="21.9" customHeight="1">
       <c r="Q55" s="125" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="21.95" customHeight="1">
+    <row r="56" spans="1:17" ht="21.9" customHeight="1">
       <c r="Q56" s="125" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="21.95" customHeight="1">
+    <row r="57" spans="1:17" ht="21.9" customHeight="1">
       <c r="Q57" s="125" t="s">
         <v>95</v>
       </c>
@@ -9862,7 +9780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="28.5">
+    <row r="63" spans="1:17" ht="27.6">
       <c r="A63" s="116"/>
       <c r="B63" s="116"/>
       <c r="C63" s="116"/>
@@ -9957,7 +9875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="28.5">
+    <row r="68" spans="1:17" ht="27.6">
       <c r="A68" s="116"/>
       <c r="B68" s="116"/>
       <c r="C68" s="116"/>
@@ -10261,7 +10179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="28.5">
+    <row r="84" spans="1:17" ht="27.6">
       <c r="A84" s="116"/>
       <c r="B84" s="116"/>
       <c r="C84" s="116"/>
@@ -11078,7 +10996,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="28.5">
+    <row r="127" spans="1:17" ht="27.6">
       <c r="A127" s="116"/>
       <c r="B127" s="116"/>
       <c r="C127" s="116"/>
@@ -11363,7 +11281,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="28.5">
+    <row r="142" spans="1:17" ht="27.6">
       <c r="A142" s="116"/>
       <c r="B142" s="116"/>
       <c r="C142" s="116"/>
@@ -11553,7 +11471,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="28.5">
+    <row r="152" spans="1:17" ht="27.6">
       <c r="A152" s="116"/>
       <c r="B152" s="116"/>
       <c r="C152" s="116"/>
@@ -11591,7 +11509,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="28.5">
+    <row r="154" spans="1:17" ht="27.6">
       <c r="A154" s="116"/>
       <c r="B154" s="116"/>
       <c r="C154" s="116"/>
@@ -11781,7 +11699,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="28.5">
+    <row r="164" spans="1:17" ht="27.6">
       <c r="A164" s="116"/>
       <c r="B164" s="116"/>
       <c r="C164" s="116"/>
@@ -11819,7 +11737,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="42.75">
+    <row r="166" spans="1:17" ht="41.4">
       <c r="A166" s="116"/>
       <c r="B166" s="116"/>
       <c r="C166" s="116"/>
@@ -11876,7 +11794,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="28.5">
+    <row r="169" spans="1:17" ht="27.6">
       <c r="A169" s="116"/>
       <c r="B169" s="116"/>
       <c r="C169" s="116"/>
@@ -12066,7 +11984,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="28.5">
+    <row r="179" spans="1:17" ht="27.6">
       <c r="A179" s="116"/>
       <c r="B179" s="116"/>
       <c r="C179" s="116"/>
@@ -12446,7 +12364,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="28.5">
+    <row r="199" spans="1:17" ht="27.6">
       <c r="A199" s="116"/>
       <c r="B199" s="116"/>
       <c r="C199" s="116"/>
@@ -12579,7 +12497,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="28.5">
+    <row r="206" spans="1:17" ht="27.6">
       <c r="A206" s="116"/>
       <c r="B206" s="116"/>
       <c r="C206" s="116"/>
@@ -12598,7 +12516,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="28.5">
+    <row r="207" spans="1:17" ht="27.6">
       <c r="A207" s="116"/>
       <c r="B207" s="116"/>
       <c r="C207" s="116"/>
@@ -13536,24 +13454,54 @@
       <c r="N263" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="S14:U15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="R3:V13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
+  <mergeCells count="83">
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:F29"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="I22:K22"/>
@@ -13570,57 +13518,26 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:F29"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:F27"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="R3:V13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:N14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -13840,15 +13757,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>297180</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>297180</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13862,15 +13779,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:colOff>441960</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:colOff>297180</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13890,9 +13807,9 @@
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:colOff>220980</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13906,7 +13823,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </from>
@@ -13914,7 +13831,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>297180</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13928,7 +13845,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -13936,7 +13853,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>314325</xdr:rowOff>
+                    <xdr:rowOff>312420</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13952,13 +13869,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:colOff>670560</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>247650</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13972,15 +13889,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13994,15 +13911,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>274320</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14018,13 +13935,13 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:colOff>274320</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>220980</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14038,13 +13955,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:colOff>487680</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>247650</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:colOff>327660</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -14060,13 +13977,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:colOff>121920</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -14082,37 +13999,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:colOff>220980</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="22545" r:id="rId218" name="Button 17">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!InsertImage">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>18</xdr:col>
-                    <xdr:colOff>152400</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>20</xdr:col>
-                    <xdr:colOff>495300</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14134,193 +14029,193 @@
       <selection activeCell="I45" sqref="I45:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="1.7109375" customWidth="1"/>
+    <col min="1" max="2" width="1.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1">
-      <c r="A1" s="515"/>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
+      <c r="A1" s="459"/>
+      <c r="B1" s="460"/>
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="460"/>
+      <c r="I1" s="460"/>
+      <c r="J1" s="460"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A2" s="517">
+      <c r="A2" s="461">
         <v>34</v>
       </c>
-      <c r="B2" s="518"/>
-      <c r="C2" s="519" t="s">
+      <c r="B2" s="462"/>
+      <c r="C2" s="463" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="519"/>
-      <c r="E2" s="519"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="521"/>
-      <c r="H2" s="522"/>
-      <c r="I2" s="522"/>
-      <c r="J2" s="522"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="463"/>
+      <c r="F2" s="464"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="468"/>
+      <c r="I2" s="468"/>
+      <c r="J2" s="468"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="508" t="s">
+      <c r="C3" s="465" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="508"/>
-      <c r="E3" s="508"/>
-      <c r="F3" s="509"/>
-      <c r="G3" s="523"/>
-      <c r="H3" s="524"/>
-      <c r="I3" s="524"/>
-      <c r="J3" s="524"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="470"/>
       <c r="K3" s="133"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="508" t="s">
+      <c r="C4" s="465" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="509"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="524"/>
-      <c r="I4" s="524"/>
-      <c r="J4" s="524"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="465"/>
+      <c r="F4" s="466"/>
+      <c r="G4" s="469"/>
+      <c r="H4" s="470"/>
+      <c r="I4" s="470"/>
+      <c r="J4" s="470"/>
       <c r="K4" s="133"/>
     </row>
     <row r="5" spans="1:11" ht="24.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="508" t="s">
+      <c r="C5" s="465" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="508"/>
-      <c r="E5" s="508"/>
-      <c r="F5" s="509"/>
-      <c r="G5" s="466" t="b">
+      <c r="D5" s="465"/>
+      <c r="E5" s="465"/>
+      <c r="F5" s="466"/>
+      <c r="G5" s="452" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="455"/>
-      <c r="I5" s="527" t="b">
+      <c r="H5" s="453"/>
+      <c r="I5" s="451" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="527"/>
+      <c r="J5" s="451"/>
       <c r="K5" s="133"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="508" t="s">
+      <c r="C6" s="465" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="508"/>
-      <c r="E6" s="508"/>
-      <c r="F6" s="509"/>
-      <c r="G6" s="466" t="b">
+      <c r="D6" s="465"/>
+      <c r="E6" s="465"/>
+      <c r="F6" s="466"/>
+      <c r="G6" s="452" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="455"/>
-      <c r="I6" s="455" t="b">
+      <c r="H6" s="453"/>
+      <c r="I6" s="453" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="455"/>
+      <c r="J6" s="453"/>
       <c r="K6" s="133"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="508"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="508"/>
-      <c r="F7" s="508"/>
+      <c r="C7" s="465"/>
+      <c r="D7" s="465"/>
+      <c r="E7" s="465"/>
+      <c r="F7" s="465"/>
       <c r="G7" s="132" t="s">
         <v>340</v>
       </c>
       <c r="H7" s="131"/>
-      <c r="I7" s="528" t="s">
+      <c r="I7" s="454" t="s">
         <v>258</v>
       </c>
-      <c r="J7" s="528"/>
+      <c r="J7" s="454"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="510"/>
-      <c r="D8" s="510"/>
-      <c r="E8" s="510"/>
-      <c r="F8" s="511"/>
-      <c r="G8" s="525"/>
-      <c r="H8" s="526"/>
-      <c r="I8" s="526"/>
-      <c r="J8" s="526"/>
+      <c r="C8" s="484"/>
+      <c r="D8" s="484"/>
+      <c r="E8" s="484"/>
+      <c r="F8" s="485"/>
+      <c r="G8" s="449"/>
+      <c r="H8" s="450"/>
+      <c r="I8" s="450"/>
+      <c r="J8" s="450"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" ht="20.45" customHeight="1">
-      <c r="A9" s="512">
+    <row r="9" spans="1:11" ht="20.399999999999999" customHeight="1">
+      <c r="A9" s="486">
         <v>35</v>
       </c>
-      <c r="B9" s="513"/>
-      <c r="C9" s="486" t="s">
+      <c r="B9" s="487"/>
+      <c r="C9" s="488" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="486"/>
-      <c r="E9" s="380"/>
-      <c r="F9" s="514"/>
-      <c r="G9" s="478" t="b">
+      <c r="D9" s="488"/>
+      <c r="E9" s="384"/>
+      <c r="F9" s="489"/>
+      <c r="G9" s="456" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="479"/>
-      <c r="I9" s="479" t="b">
+      <c r="H9" s="455"/>
+      <c r="I9" s="455" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="479"/>
+      <c r="J9" s="455"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" ht="26.25" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="486"/>
-      <c r="D10" s="486"/>
-      <c r="E10" s="380"/>
-      <c r="F10" s="514"/>
-      <c r="G10" s="529" t="s">
+      <c r="C10" s="488"/>
+      <c r="D10" s="488"/>
+      <c r="E10" s="384"/>
+      <c r="F10" s="489"/>
+      <c r="G10" s="457" t="s">
         <v>340</v>
       </c>
-      <c r="H10" s="530"/>
-      <c r="I10" s="502"/>
-      <c r="J10" s="502"/>
+      <c r="H10" s="458"/>
+      <c r="I10" s="443"/>
+      <c r="J10" s="443"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="380"/>
-      <c r="D11" s="380"/>
-      <c r="E11" s="380"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="499"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="500"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="384"/>
+      <c r="E11" s="384"/>
+      <c r="F11" s="384"/>
+      <c r="G11" s="439"/>
+      <c r="H11" s="440"/>
+      <c r="I11" s="440"/>
+      <c r="J11" s="440"/>
       <c r="K11" s="133"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1">
@@ -14330,224 +14225,224 @@
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="531" t="b">
+      <c r="G12" s="437" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="532"/>
-      <c r="I12" s="532" t="b">
+      <c r="H12" s="438"/>
+      <c r="I12" s="438" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="532"/>
+      <c r="J12" s="438"/>
       <c r="K12" s="133"/>
     </row>
     <row r="13" spans="1:11" ht="21.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="503" t="s">
+      <c r="C13" s="471" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="503"/>
-      <c r="E13" s="504"/>
-      <c r="F13" s="505"/>
-      <c r="G13" s="531"/>
-      <c r="H13" s="532"/>
-      <c r="I13" s="532"/>
-      <c r="J13" s="532"/>
+      <c r="D13" s="471"/>
+      <c r="E13" s="472"/>
+      <c r="F13" s="473"/>
+      <c r="G13" s="437"/>
+      <c r="H13" s="438"/>
+      <c r="I13" s="438"/>
+      <c r="J13" s="438"/>
       <c r="K13" s="133"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="503"/>
-      <c r="D14" s="503"/>
-      <c r="E14" s="504"/>
-      <c r="F14" s="505"/>
-      <c r="G14" s="449" t="s">
+      <c r="C14" s="471"/>
+      <c r="D14" s="471"/>
+      <c r="E14" s="472"/>
+      <c r="F14" s="473"/>
+      <c r="G14" s="445" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="450"/>
-      <c r="I14" s="534"/>
-      <c r="J14" s="534"/>
+      <c r="H14" s="446"/>
+      <c r="I14" s="442"/>
+      <c r="J14" s="442"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="503"/>
-      <c r="D15" s="503"/>
-      <c r="E15" s="504"/>
-      <c r="F15" s="505"/>
-      <c r="G15" s="533" t="s">
+      <c r="C15" s="471"/>
+      <c r="D15" s="471"/>
+      <c r="E15" s="472"/>
+      <c r="F15" s="473"/>
+      <c r="G15" s="441" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="534"/>
-      <c r="I15" s="502"/>
-      <c r="J15" s="502"/>
+      <c r="H15" s="442"/>
+      <c r="I15" s="443"/>
+      <c r="J15" s="443"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" ht="27.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="503"/>
-      <c r="D16" s="503"/>
-      <c r="E16" s="504"/>
-      <c r="F16" s="505"/>
-      <c r="G16" s="536" t="s">
+      <c r="C16" s="471"/>
+      <c r="D16" s="471"/>
+      <c r="E16" s="472"/>
+      <c r="F16" s="473"/>
+      <c r="G16" s="447" t="s">
         <v>320</v>
       </c>
-      <c r="H16" s="537"/>
-      <c r="I16" s="535"/>
-      <c r="J16" s="535"/>
+      <c r="H16" s="448"/>
+      <c r="I16" s="444"/>
+      <c r="J16" s="444"/>
       <c r="K16" s="133"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="506"/>
-      <c r="D17" s="506"/>
-      <c r="E17" s="506"/>
-      <c r="F17" s="507"/>
-      <c r="G17" s="499" t="s">
+      <c r="C17" s="474"/>
+      <c r="D17" s="474"/>
+      <c r="E17" s="474"/>
+      <c r="F17" s="475"/>
+      <c r="G17" s="439" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="500"/>
-      <c r="I17" s="500"/>
-      <c r="J17" s="500"/>
+      <c r="H17" s="440"/>
+      <c r="I17" s="440"/>
+      <c r="J17" s="440"/>
       <c r="K17" s="133"/>
     </row>
     <row r="18" spans="1:12" ht="33" customHeight="1">
-      <c r="A18" s="474">
+      <c r="A18" s="482">
         <v>36</v>
       </c>
-      <c r="B18" s="475"/>
-      <c r="C18" s="497" t="s">
+      <c r="B18" s="483"/>
+      <c r="C18" s="476" t="s">
         <v>322</v>
       </c>
-      <c r="D18" s="497"/>
-      <c r="E18" s="497"/>
-      <c r="F18" s="498"/>
-      <c r="G18" s="478" t="b">
+      <c r="D18" s="476"/>
+      <c r="E18" s="476"/>
+      <c r="F18" s="477"/>
+      <c r="G18" s="456" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="479"/>
-      <c r="I18" s="479" t="b">
+      <c r="H18" s="455"/>
+      <c r="I18" s="455" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="479"/>
+      <c r="J18" s="455"/>
       <c r="K18" s="133"/>
     </row>
     <row r="19" spans="1:12" ht="26.25" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="468"/>
-      <c r="D19" s="468"/>
-      <c r="E19" s="468"/>
-      <c r="F19" s="469"/>
-      <c r="G19" s="480" t="s">
+      <c r="C19" s="478"/>
+      <c r="D19" s="478"/>
+      <c r="E19" s="478"/>
+      <c r="F19" s="479"/>
+      <c r="G19" s="491" t="s">
         <v>342</v>
       </c>
-      <c r="H19" s="481"/>
-      <c r="I19" s="502"/>
-      <c r="J19" s="502"/>
+      <c r="H19" s="492"/>
+      <c r="I19" s="443"/>
+      <c r="J19" s="443"/>
       <c r="K19" s="134"/>
     </row>
     <row r="20" spans="1:12" ht="25.5" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="482"/>
-      <c r="D20" s="482"/>
-      <c r="E20" s="482"/>
-      <c r="F20" s="483"/>
-      <c r="G20" s="499"/>
-      <c r="H20" s="500"/>
-      <c r="I20" s="501"/>
-      <c r="J20" s="501"/>
+      <c r="C20" s="480"/>
+      <c r="D20" s="480"/>
+      <c r="E20" s="480"/>
+      <c r="F20" s="481"/>
+      <c r="G20" s="439"/>
+      <c r="H20" s="440"/>
+      <c r="I20" s="490"/>
+      <c r="J20" s="490"/>
       <c r="K20" s="133"/>
     </row>
     <row r="21" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A21" s="474">
+      <c r="A21" s="482">
         <v>37</v>
       </c>
-      <c r="B21" s="475"/>
-      <c r="C21" s="497" t="s">
+      <c r="B21" s="483"/>
+      <c r="C21" s="476" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="497"/>
-      <c r="E21" s="497"/>
-      <c r="F21" s="498"/>
-      <c r="G21" s="478" t="b">
+      <c r="D21" s="476"/>
+      <c r="E21" s="476"/>
+      <c r="F21" s="477"/>
+      <c r="G21" s="456" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="479"/>
-      <c r="I21" s="479" t="b">
+      <c r="H21" s="455"/>
+      <c r="I21" s="455" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="479"/>
+      <c r="J21" s="455"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="468"/>
-      <c r="D22" s="468"/>
-      <c r="E22" s="468"/>
-      <c r="F22" s="469"/>
-      <c r="G22" s="480" t="s">
+      <c r="C22" s="478"/>
+      <c r="D22" s="478"/>
+      <c r="E22" s="478"/>
+      <c r="F22" s="479"/>
+      <c r="G22" s="491" t="s">
         <v>341</v>
       </c>
-      <c r="H22" s="481"/>
-      <c r="I22" s="496"/>
-      <c r="J22" s="496"/>
+      <c r="H22" s="492"/>
+      <c r="I22" s="494"/>
+      <c r="J22" s="494"/>
       <c r="K22" s="133"/>
     </row>
     <row r="23" spans="1:12" ht="39.75" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="482"/>
-      <c r="D23" s="482"/>
-      <c r="E23" s="482"/>
-      <c r="F23" s="483"/>
-      <c r="G23" s="499"/>
-      <c r="H23" s="500"/>
-      <c r="I23" s="500"/>
-      <c r="J23" s="500"/>
+      <c r="C23" s="480"/>
+      <c r="D23" s="480"/>
+      <c r="E23" s="480"/>
+      <c r="F23" s="481"/>
+      <c r="G23" s="439"/>
+      <c r="H23" s="440"/>
+      <c r="I23" s="440"/>
+      <c r="J23" s="440"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A24" s="474">
+      <c r="A24" s="482">
         <v>38</v>
       </c>
-      <c r="B24" s="475"/>
-      <c r="C24" s="497" t="s">
+      <c r="B24" s="483"/>
+      <c r="C24" s="476" t="s">
         <v>324</v>
       </c>
-      <c r="D24" s="497"/>
-      <c r="E24" s="497"/>
-      <c r="F24" s="498"/>
-      <c r="G24" s="478" t="b">
+      <c r="D24" s="476"/>
+      <c r="E24" s="476"/>
+      <c r="F24" s="477"/>
+      <c r="G24" s="456" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="479"/>
-      <c r="I24" s="479" t="b">
+      <c r="H24" s="455"/>
+      <c r="I24" s="455" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="479"/>
+      <c r="J24" s="455"/>
       <c r="K24" s="133"/>
       <c r="L24" s="135"/>
     </row>
     <row r="25" spans="1:12" ht="28.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="468"/>
-      <c r="D25" s="468"/>
-      <c r="E25" s="468"/>
-      <c r="F25" s="469"/>
-      <c r="G25" s="449" t="s">
+      <c r="C25" s="478"/>
+      <c r="D25" s="478"/>
+      <c r="E25" s="478"/>
+      <c r="F25" s="479"/>
+      <c r="G25" s="445" t="s">
         <v>325</v>
       </c>
-      <c r="H25" s="450"/>
-      <c r="I25" s="452"/>
-      <c r="J25" s="452"/>
+      <c r="H25" s="446"/>
+      <c r="I25" s="493"/>
+      <c r="J25" s="493"/>
       <c r="K25" s="133"/>
     </row>
     <row r="26" spans="1:12" ht="23.25" customHeight="1">
@@ -14557,123 +14452,123 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="490" t="b">
+      <c r="G26" s="503" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="491"/>
-      <c r="I26" s="492" t="b">
+      <c r="H26" s="504"/>
+      <c r="I26" s="505" t="b">
         <v>1</v>
       </c>
-      <c r="J26" s="492"/>
+      <c r="J26" s="505"/>
       <c r="K26" s="133"/>
     </row>
     <row r="27" spans="1:12" ht="24.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="468" t="s">
+      <c r="C27" s="478" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="468"/>
-      <c r="E27" s="468"/>
-      <c r="F27" s="469"/>
-      <c r="G27" s="490"/>
-      <c r="H27" s="491"/>
-      <c r="I27" s="493"/>
-      <c r="J27" s="493"/>
+      <c r="D27" s="478"/>
+      <c r="E27" s="478"/>
+      <c r="F27" s="479"/>
+      <c r="G27" s="503"/>
+      <c r="H27" s="504"/>
+      <c r="I27" s="506"/>
+      <c r="J27" s="506"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="1:12" ht="36" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="468"/>
-      <c r="D28" s="468"/>
-      <c r="E28" s="468"/>
-      <c r="F28" s="469"/>
-      <c r="G28" s="449" t="s">
+      <c r="C28" s="478"/>
+      <c r="D28" s="478"/>
+      <c r="E28" s="478"/>
+      <c r="F28" s="479"/>
+      <c r="G28" s="445" t="s">
         <v>325</v>
       </c>
-      <c r="H28" s="450"/>
-      <c r="I28" s="452"/>
-      <c r="J28" s="452"/>
+      <c r="H28" s="446"/>
+      <c r="I28" s="493"/>
+      <c r="J28" s="493"/>
       <c r="K28" s="133"/>
     </row>
     <row r="29" spans="1:12" ht="30.75" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="482"/>
-      <c r="D29" s="482"/>
-      <c r="E29" s="482"/>
-      <c r="F29" s="483"/>
-      <c r="G29" s="476"/>
-      <c r="H29" s="477"/>
-      <c r="I29" s="477"/>
-      <c r="J29" s="477"/>
+      <c r="C29" s="480"/>
+      <c r="D29" s="480"/>
+      <c r="E29" s="480"/>
+      <c r="F29" s="481"/>
+      <c r="G29" s="495"/>
+      <c r="H29" s="496"/>
+      <c r="I29" s="496"/>
+      <c r="J29" s="496"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A30" s="474">
+    <row r="30" spans="1:12" ht="23.4" customHeight="1">
+      <c r="A30" s="482">
         <v>39</v>
       </c>
-      <c r="B30" s="475"/>
-      <c r="C30" s="484" t="s">
+      <c r="B30" s="483"/>
+      <c r="C30" s="498" t="s">
         <v>327</v>
       </c>
-      <c r="D30" s="484"/>
-      <c r="E30" s="484"/>
-      <c r="F30" s="485"/>
-      <c r="G30" s="478" t="b">
+      <c r="D30" s="498"/>
+      <c r="E30" s="498"/>
+      <c r="F30" s="499"/>
+      <c r="G30" s="456" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="479"/>
-      <c r="I30" s="479" t="b">
+      <c r="H30" s="455"/>
+      <c r="I30" s="455" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="479"/>
+      <c r="J30" s="455"/>
       <c r="K30" s="133"/>
     </row>
     <row r="31" spans="1:12" ht="27" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="486"/>
-      <c r="D31" s="486"/>
-      <c r="E31" s="486"/>
-      <c r="F31" s="487"/>
-      <c r="G31" s="480" t="s">
+      <c r="C31" s="488"/>
+      <c r="D31" s="488"/>
+      <c r="E31" s="488"/>
+      <c r="F31" s="500"/>
+      <c r="G31" s="491" t="s">
         <v>328</v>
       </c>
-      <c r="H31" s="481"/>
-      <c r="I31" s="451"/>
-      <c r="J31" s="452"/>
+      <c r="H31" s="492"/>
+      <c r="I31" s="497"/>
+      <c r="J31" s="493"/>
       <c r="K31" s="133"/>
     </row>
     <row r="32" spans="1:12" ht="33.75" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="488"/>
-      <c r="D32" s="488"/>
-      <c r="E32" s="488"/>
-      <c r="F32" s="489"/>
-      <c r="G32" s="494"/>
-      <c r="H32" s="495"/>
-      <c r="I32" s="495"/>
-      <c r="J32" s="495"/>
+      <c r="C32" s="501"/>
+      <c r="D32" s="501"/>
+      <c r="E32" s="501"/>
+      <c r="F32" s="502"/>
+      <c r="G32" s="507"/>
+      <c r="H32" s="508"/>
+      <c r="I32" s="508"/>
+      <c r="J32" s="508"/>
       <c r="K32" s="133"/>
     </row>
     <row r="33" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A33" s="470">
+      <c r="A33" s="509">
         <v>40</v>
       </c>
-      <c r="B33" s="471"/>
-      <c r="C33" s="468" t="s">
+      <c r="B33" s="510"/>
+      <c r="C33" s="478" t="s">
         <v>329</v>
       </c>
-      <c r="D33" s="468"/>
-      <c r="E33" s="468"/>
-      <c r="F33" s="469"/>
-      <c r="G33" s="472"/>
-      <c r="H33" s="473"/>
-      <c r="I33" s="473"/>
-      <c r="J33" s="473"/>
+      <c r="D33" s="478"/>
+      <c r="E33" s="478"/>
+      <c r="F33" s="479"/>
+      <c r="G33" s="511"/>
+      <c r="H33" s="512"/>
+      <c r="I33" s="512"/>
+      <c r="J33" s="512"/>
       <c r="K33" s="133"/>
     </row>
     <row r="34" spans="1:11" ht="39.75" customHeight="1">
@@ -14681,35 +14576,35 @@
         <v>330</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="468" t="s">
+      <c r="C34" s="478" t="s">
         <v>331</v>
       </c>
-      <c r="D34" s="468"/>
-      <c r="E34" s="468"/>
-      <c r="F34" s="469"/>
-      <c r="G34" s="466" t="b">
+      <c r="D34" s="478"/>
+      <c r="E34" s="478"/>
+      <c r="F34" s="479"/>
+      <c r="G34" s="452" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="455"/>
-      <c r="I34" s="455" t="b">
+      <c r="H34" s="453"/>
+      <c r="I34" s="453" t="b">
         <v>0</v>
       </c>
-      <c r="J34" s="455"/>
+      <c r="J34" s="453"/>
       <c r="K34" s="133"/>
     </row>
     <row r="35" spans="1:11" ht="36.75" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="468"/>
-      <c r="D35" s="468"/>
-      <c r="E35" s="468"/>
-      <c r="F35" s="469"/>
-      <c r="G35" s="449" t="s">
+      <c r="C35" s="478"/>
+      <c r="D35" s="478"/>
+      <c r="E35" s="478"/>
+      <c r="F35" s="479"/>
+      <c r="G35" s="445" t="s">
         <v>325</v>
       </c>
-      <c r="H35" s="450"/>
-      <c r="I35" s="451"/>
-      <c r="J35" s="452"/>
+      <c r="H35" s="446"/>
+      <c r="I35" s="497"/>
+      <c r="J35" s="493"/>
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="33" customHeight="1">
@@ -14717,35 +14612,35 @@
         <v>332</v>
       </c>
       <c r="B36" s="22"/>
-      <c r="C36" s="469" t="s">
+      <c r="C36" s="479" t="s">
         <v>333</v>
       </c>
-      <c r="D36" s="469"/>
-      <c r="E36" s="469"/>
-      <c r="F36" s="469"/>
-      <c r="G36" s="466" t="b">
+      <c r="D36" s="479"/>
+      <c r="E36" s="479"/>
+      <c r="F36" s="479"/>
+      <c r="G36" s="452" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="455"/>
-      <c r="I36" s="467" t="b">
+      <c r="H36" s="453"/>
+      <c r="I36" s="513" t="b">
         <v>0</v>
       </c>
-      <c r="J36" s="467"/>
+      <c r="J36" s="513"/>
       <c r="K36" s="133"/>
     </row>
     <row r="37" spans="1:11" ht="34.5" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="469"/>
-      <c r="D37" s="469"/>
-      <c r="E37" s="469"/>
-      <c r="F37" s="469"/>
-      <c r="G37" s="449" t="s">
+      <c r="C37" s="479"/>
+      <c r="D37" s="479"/>
+      <c r="E37" s="479"/>
+      <c r="F37" s="479"/>
+      <c r="G37" s="445" t="s">
         <v>325</v>
       </c>
-      <c r="H37" s="450"/>
-      <c r="I37" s="451"/>
-      <c r="J37" s="452"/>
+      <c r="H37" s="446"/>
+      <c r="I37" s="497"/>
+      <c r="J37" s="493"/>
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="30.75" customHeight="1">
@@ -14753,55 +14648,55 @@
         <v>334</v>
       </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="468" t="s">
+      <c r="C38" s="478" t="s">
         <v>335</v>
       </c>
-      <c r="D38" s="468"/>
+      <c r="D38" s="478"/>
       <c r="E38" s="23"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="453" t="b">
+      <c r="G38" s="514" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="454"/>
-      <c r="I38" s="455" t="b">
+      <c r="H38" s="515"/>
+      <c r="I38" s="453" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="455"/>
+      <c r="J38" s="453"/>
       <c r="K38" s="133"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A39" s="458"/>
-      <c r="B39" s="459"/>
-      <c r="C39" s="459"/>
-      <c r="D39" s="459"/>
-      <c r="E39" s="459"/>
-      <c r="F39" s="460"/>
-      <c r="G39" s="449" t="s">
+      <c r="A39" s="518"/>
+      <c r="B39" s="519"/>
+      <c r="C39" s="519"/>
+      <c r="D39" s="519"/>
+      <c r="E39" s="519"/>
+      <c r="F39" s="520"/>
+      <c r="G39" s="445" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="450"/>
-      <c r="I39" s="451"/>
-      <c r="J39" s="452"/>
+      <c r="H39" s="446"/>
+      <c r="I39" s="497"/>
+      <c r="J39" s="493"/>
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A40" s="461"/>
-      <c r="B40" s="462"/>
-      <c r="C40" s="462"/>
-      <c r="D40" s="462"/>
-      <c r="E40" s="462"/>
-      <c r="F40" s="463"/>
-      <c r="G40" s="464"/>
-      <c r="H40" s="465"/>
-      <c r="I40" s="465"/>
-      <c r="J40" s="465"/>
+      <c r="A40" s="521"/>
+      <c r="B40" s="522"/>
+      <c r="C40" s="522"/>
+      <c r="D40" s="522"/>
+      <c r="E40" s="522"/>
+      <c r="F40" s="523"/>
+      <c r="G40" s="524"/>
+      <c r="H40" s="525"/>
+      <c r="I40" s="525"/>
+      <c r="J40" s="525"/>
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A41" s="456">
+      <c r="A41" s="516">
         <v>41</v>
       </c>
-      <c r="B41" s="457"/>
+      <c r="B41" s="517"/>
       <c r="C41" s="25" t="s">
         <v>336</v>
       </c>
@@ -14815,61 +14710,61 @@
       <c r="K41" s="133"/>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1">
-      <c r="A42" s="443" t="s">
+      <c r="A42" s="526" t="s">
         <v>337</v>
       </c>
-      <c r="B42" s="444"/>
-      <c r="C42" s="444"/>
-      <c r="D42" s="444"/>
-      <c r="E42" s="445"/>
-      <c r="F42" s="443" t="s">
+      <c r="B42" s="527"/>
+      <c r="C42" s="527"/>
+      <c r="D42" s="527"/>
+      <c r="E42" s="528"/>
+      <c r="F42" s="526" t="s">
         <v>338</v>
       </c>
-      <c r="G42" s="444"/>
-      <c r="H42" s="444"/>
-      <c r="I42" s="446" t="s">
+      <c r="G42" s="527"/>
+      <c r="H42" s="527"/>
+      <c r="I42" s="529" t="s">
         <v>339</v>
       </c>
-      <c r="J42" s="447"/>
+      <c r="J42" s="530"/>
       <c r="K42" s="133"/>
     </row>
     <row r="43" spans="1:11" ht="24" customHeight="1">
-      <c r="A43" s="433"/>
-      <c r="B43" s="434"/>
-      <c r="C43" s="436"/>
-      <c r="D43" s="436"/>
-      <c r="E43" s="448"/>
-      <c r="F43" s="433"/>
-      <c r="G43" s="434"/>
-      <c r="H43" s="436"/>
-      <c r="I43" s="437"/>
-      <c r="J43" s="438"/>
+      <c r="A43" s="531"/>
+      <c r="B43" s="532"/>
+      <c r="C43" s="533"/>
+      <c r="D43" s="533"/>
+      <c r="E43" s="534"/>
+      <c r="F43" s="531"/>
+      <c r="G43" s="532"/>
+      <c r="H43" s="533"/>
+      <c r="I43" s="535"/>
+      <c r="J43" s="536"/>
       <c r="K43" s="133"/>
     </row>
     <row r="44" spans="1:11" ht="24" customHeight="1">
-      <c r="A44" s="433"/>
-      <c r="B44" s="434"/>
-      <c r="C44" s="434"/>
-      <c r="D44" s="434"/>
-      <c r="E44" s="435"/>
-      <c r="F44" s="433"/>
-      <c r="G44" s="434"/>
-      <c r="H44" s="436"/>
-      <c r="I44" s="437"/>
-      <c r="J44" s="438"/>
+      <c r="A44" s="531"/>
+      <c r="B44" s="532"/>
+      <c r="C44" s="532"/>
+      <c r="D44" s="532"/>
+      <c r="E44" s="537"/>
+      <c r="F44" s="531"/>
+      <c r="G44" s="532"/>
+      <c r="H44" s="533"/>
+      <c r="I44" s="535"/>
+      <c r="J44" s="536"/>
       <c r="K44" s="133"/>
     </row>
     <row r="45" spans="1:11" ht="24" customHeight="1" thickBot="1">
-      <c r="A45" s="439"/>
-      <c r="B45" s="440"/>
-      <c r="C45" s="441"/>
-      <c r="D45" s="441"/>
-      <c r="E45" s="442"/>
-      <c r="F45" s="439"/>
-      <c r="G45" s="440"/>
-      <c r="H45" s="441"/>
-      <c r="I45" s="437"/>
-      <c r="J45" s="438"/>
+      <c r="A45" s="538"/>
+      <c r="B45" s="539"/>
+      <c r="C45" s="540"/>
+      <c r="D45" s="540"/>
+      <c r="E45" s="541"/>
+      <c r="F45" s="538"/>
+      <c r="G45" s="539"/>
+      <c r="H45" s="540"/>
+      <c r="I45" s="535"/>
+      <c r="J45" s="536"/>
       <c r="K45" s="133"/>
     </row>
     <row r="46" spans="1:11" ht="39.75" customHeight="1"/>
@@ -14891,46 +14786,52 @@
     <row r="62" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C13:F17"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F11"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C27:F29"/>
+    <mergeCell ref="C30:F32"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G32:J32"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
@@ -14944,52 +14845,46 @@
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C27:F29"/>
-    <mergeCell ref="C30:F32"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C13:F17"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15004,15 +14899,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:colOff>137160</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>628650</xdr:colOff>
+                    <xdr:colOff>632460</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15034,7 +14929,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15048,15 +14943,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:colOff>137160</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>628650</xdr:colOff>
+                    <xdr:colOff>632460</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15078,7 +14973,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15092,15 +14987,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>106680</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:colOff>601980</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>297180</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15116,13 +15011,13 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:colOff>502920</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>297180</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15136,15 +15031,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15160,13 +15055,13 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:colOff>502920</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15182,13 +15077,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15204,13 +15099,13 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:colOff>502920</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15226,13 +15121,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15246,15 +15141,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>83820</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>83820</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>285750</xdr:rowOff>
+                    <xdr:rowOff>289560</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15268,15 +15163,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15298,7 +15193,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>297180</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15318,9 +15213,9 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:colOff>502920</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>297180</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15334,15 +15229,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:colOff>121920</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>619125</xdr:colOff>
+                    <xdr:colOff>617220</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>247650</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15356,15 +15251,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>247650</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15380,13 +15275,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15402,13 +15297,13 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:colOff>502920</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15422,13 +15317,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:colOff>601980</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -15446,13 +15341,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15472,7 +15367,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -15490,13 +15385,13 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:colOff>502920</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15512,13 +15407,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15540,29 +15435,29 @@
       <selection activeCell="D15" sqref="D15:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:10">
       <c r="A1" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="354" t="s">
+      <c r="B1" s="343" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
-      <c r="G1" s="355"/>
-      <c r="H1" s="355"/>
-      <c r="I1" s="355"/>
-      <c r="J1" s="355"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="57">
@@ -15572,15 +15467,15 @@
         <v>256</v>
       </c>
       <c r="C2" s="59"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="357"/>
-      <c r="I2" s="357"/>
-      <c r="J2" s="358"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.45" customHeight="1">
+      <c r="D2" s="345"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="347"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1">
       <c r="A3" s="60"/>
       <c r="B3" s="61" t="s">
         <v>257</v>
@@ -15588,13 +15483,13 @@
       <c r="C3" s="62"/>
       <c r="D3" s="348"/>
       <c r="E3" s="349"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="360" t="s">
+      <c r="F3" s="350"/>
+      <c r="G3" s="351" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="361"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="346"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="354"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="63"/>
@@ -15608,7 +15503,7 @@
       <c r="G4" s="349"/>
       <c r="H4" s="349"/>
       <c r="I4" s="349"/>
-      <c r="J4" s="350"/>
+      <c r="J4" s="355"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="66"/>
@@ -15616,13 +15511,13 @@
         <v>260</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="339"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="340"/>
-      <c r="J5" s="341"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="357"/>
+      <c r="G5" s="357"/>
+      <c r="H5" s="357"/>
+      <c r="I5" s="357"/>
+      <c r="J5" s="358"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="66"/>
@@ -15630,13 +15525,13 @@
         <v>261</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
-      <c r="F6" s="340"/>
-      <c r="G6" s="340"/>
-      <c r="H6" s="340"/>
-      <c r="I6" s="340"/>
-      <c r="J6" s="341"/>
+      <c r="D6" s="356"/>
+      <c r="E6" s="357"/>
+      <c r="F6" s="357"/>
+      <c r="G6" s="357"/>
+      <c r="H6" s="357"/>
+      <c r="I6" s="357"/>
+      <c r="J6" s="358"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="66"/>
@@ -15644,13 +15539,13 @@
         <v>262</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="351"/>
-      <c r="E7" s="352"/>
-      <c r="F7" s="352"/>
-      <c r="G7" s="352"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="352"/>
-      <c r="J7" s="353"/>
+      <c r="D7" s="359"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="361"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="68"/>
@@ -15658,13 +15553,13 @@
         <v>263</v>
       </c>
       <c r="C8" s="69"/>
-      <c r="D8" s="351"/>
-      <c r="E8" s="352"/>
-      <c r="F8" s="352"/>
-      <c r="G8" s="352"/>
-      <c r="H8" s="352"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="353"/>
+      <c r="D8" s="359"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="360"/>
+      <c r="I8" s="360"/>
+      <c r="J8" s="361"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="70">
@@ -15674,29 +15569,29 @@
         <v>264</v>
       </c>
       <c r="C9" s="72"/>
-      <c r="D9" s="339"/>
-      <c r="E9" s="340"/>
-      <c r="F9" s="340"/>
-      <c r="G9" s="340"/>
-      <c r="H9" s="340"/>
-      <c r="I9" s="340"/>
-      <c r="J9" s="341"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.45" customHeight="1">
+      <c r="D9" s="356"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="357"/>
+      <c r="G9" s="357"/>
+      <c r="H9" s="357"/>
+      <c r="I9" s="357"/>
+      <c r="J9" s="358"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" customHeight="1">
       <c r="A10" s="60"/>
       <c r="B10" s="60" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="73"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="340"/>
-      <c r="F10" s="342"/>
-      <c r="G10" s="343" t="s">
+      <c r="D10" s="356"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="362"/>
+      <c r="G10" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="344"/>
-      <c r="I10" s="345"/>
-      <c r="J10" s="346"/>
+      <c r="H10" s="364"/>
+      <c r="I10" s="365"/>
+      <c r="J10" s="354"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="63"/>
@@ -15704,13 +15599,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="74"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="340"/>
-      <c r="F11" s="340"/>
-      <c r="G11" s="340"/>
-      <c r="H11" s="340"/>
-      <c r="I11" s="340"/>
-      <c r="J11" s="341"/>
+      <c r="D11" s="366"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="357"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="358"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="75">
@@ -15720,13 +15615,13 @@
         <v>265</v>
       </c>
       <c r="C12" s="76"/>
-      <c r="D12" s="339"/>
-      <c r="E12" s="340"/>
-      <c r="F12" s="340"/>
-      <c r="G12" s="340"/>
-      <c r="H12" s="340"/>
-      <c r="I12" s="340"/>
-      <c r="J12" s="341"/>
+      <c r="D12" s="356"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="357"/>
+      <c r="G12" s="357"/>
+      <c r="H12" s="357"/>
+      <c r="I12" s="357"/>
+      <c r="J12" s="358"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="60"/>
@@ -15734,13 +15629,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="73"/>
-      <c r="D13" s="339"/>
-      <c r="E13" s="340"/>
-      <c r="F13" s="340"/>
-      <c r="G13" s="340"/>
-      <c r="H13" s="340"/>
-      <c r="I13" s="340"/>
-      <c r="J13" s="341"/>
+      <c r="D13" s="356"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="357"/>
+      <c r="G13" s="357"/>
+      <c r="H13" s="357"/>
+      <c r="I13" s="357"/>
+      <c r="J13" s="358"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="60"/>
@@ -15748,13 +15643,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="73"/>
-      <c r="D14" s="339"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="340"/>
-      <c r="G14" s="340"/>
-      <c r="H14" s="340"/>
-      <c r="I14" s="340"/>
-      <c r="J14" s="341"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="357"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="357"/>
+      <c r="I14" s="357"/>
+      <c r="J14" s="358"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="77"/>
@@ -15762,26 +15657,16 @@
         <v>17</v>
       </c>
       <c r="C15" s="79"/>
-      <c r="D15" s="339"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="340"/>
-      <c r="G15" s="340"/>
-      <c r="H15" s="340"/>
-      <c r="I15" s="340"/>
-      <c r="J15" s="341"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
+      <c r="I15" s="357"/>
+      <c r="J15" s="358"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -15791,6 +15676,16 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15805,13 +15700,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5">
+    <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
         <v>266</v>
       </c>
@@ -15919,20 +15814,20 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5">
+    <row r="1" spans="1:14">
       <c r="A1" s="43" t="s">
         <v>269</v>
       </c>
@@ -15943,34 +15838,34 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="363" t="s">
+      <c r="I1" s="367" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
-      <c r="L1" s="363"/>
-      <c r="M1" s="363"/>
-      <c r="N1" s="364"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.45" customHeight="1">
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
+      <c r="N1" s="368"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" customHeight="1">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
-      <c r="D2" s="374" t="s">
+      <c r="D2" s="378" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="375"/>
-      <c r="F2" s="365" t="s">
+      <c r="E2" s="379"/>
+      <c r="F2" s="369" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="368" t="s">
+      <c r="G2" s="372" t="s">
         <v>273</v>
       </c>
-      <c r="H2" s="371" t="s">
+      <c r="H2" s="375" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22.15" customHeight="1">
+    <row r="3" spans="1:14" ht="22.2" customHeight="1">
       <c r="A3" s="48" t="s">
         <v>275</v>
       </c>
@@ -15980,11 +15875,11 @@
       <c r="C3" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="376"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="366"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="372"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="376"/>
     </row>
     <row r="4" spans="1:14" ht="15.6" customHeight="1">
       <c r="A4" s="50"/>
@@ -15996,9 +15891,9 @@
       <c r="E4" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="367"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="373"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="374"/>
+      <c r="H4" s="377"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="171"/>
@@ -16020,7 +15915,7 @@
       <c r="G6" s="169"/>
       <c r="H6" s="168"/>
     </row>
-    <row r="7" spans="1:14" ht="23.45" customHeight="1">
+    <row r="7" spans="1:14" ht="23.4" customHeight="1">
       <c r="A7" s="171"/>
       <c r="B7" s="175"/>
       <c r="C7" s="167"/>
@@ -16159,16 +16054,16 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1">
+    <row r="1" spans="1:14" ht="15" thickBot="1">
       <c r="A1" s="142" t="s">
         <v>280</v>
       </c>
@@ -16177,13 +16072,13 @@
       <c r="D1" s="143"/>
       <c r="E1" s="143"/>
       <c r="F1" s="143"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:14" ht="8.25" customHeight="1">
       <c r="A2" s="40"/>
@@ -16207,13 +16102,13 @@
       <c r="D3" s="137" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="378" t="s">
+      <c r="E3" s="382" t="s">
         <v>285</v>
       </c>
-      <c r="F3" s="379"/>
+      <c r="F3" s="383"/>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5">
+    <row r="4" spans="1:14" ht="21.6">
       <c r="A4" s="42"/>
       <c r="B4" s="152"/>
       <c r="C4" s="138"/>
@@ -17190,77 +17085,77 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="8" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="8" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5">
-      <c r="A1" s="381" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="385" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="382"/>
-      <c r="D1" s="382"/>
-      <c r="E1" s="382"/>
-      <c r="F1" s="382"/>
-      <c r="G1" s="382"/>
-      <c r="H1" s="383"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="384" t="s">
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="387"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="A2" s="388" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="386"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.45" customHeight="1">
-      <c r="A3" s="399" t="s">
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="389"/>
+      <c r="H2" s="390"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A3" s="403" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="400"/>
-      <c r="C3" s="387" t="s">
+      <c r="B3" s="404"/>
+      <c r="C3" s="391" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="390" t="s">
+      <c r="D3" s="394" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="390" t="s">
+      <c r="E3" s="394" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="390" t="s">
+      <c r="F3" s="394" t="s">
         <v>294</v>
       </c>
-      <c r="G3" s="393" t="s">
+      <c r="G3" s="397" t="s">
         <v>295</v>
       </c>
-      <c r="H3" s="396" t="s">
+      <c r="H3" s="400" t="s">
         <v>296</v>
       </c>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="401"/>
-      <c r="B4" s="402"/>
-      <c r="C4" s="388"/>
-      <c r="D4" s="391"/>
-      <c r="E4" s="391"/>
-      <c r="F4" s="391"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="397"/>
+      <c r="A4" s="405"/>
+      <c r="B4" s="406"/>
+      <c r="C4" s="392"/>
+      <c r="D4" s="395"/>
+      <c r="E4" s="395"/>
+      <c r="F4" s="395"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="401"/>
       <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="24.75" customHeight="1">
@@ -17270,12 +17165,12 @@
       <c r="B5" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="389"/>
-      <c r="D5" s="392"/>
-      <c r="E5" s="392"/>
-      <c r="F5" s="392"/>
-      <c r="G5" s="395"/>
-      <c r="H5" s="398"/>
+      <c r="C5" s="393"/>
+      <c r="D5" s="396"/>
+      <c r="E5" s="396"/>
+      <c r="F5" s="396"/>
+      <c r="G5" s="399"/>
+      <c r="H5" s="402"/>
       <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:14">
@@ -17553,19 +17448,19 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
@@ -17590,17 +17485,17 @@
       <c r="Q1" s="145"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1">
-      <c r="A2" s="403" t="s">
+      <c r="A2" s="407" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="387" t="s">
+      <c r="B2" s="391" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="412"/>
-      <c r="D2" s="406" t="s">
+      <c r="C2" s="416"/>
+      <c r="D2" s="410" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="409" t="s">
+      <c r="E2" s="413" t="s">
         <v>301</v>
       </c>
       <c r="F2" s="161"/>
@@ -17617,11 +17512,11 @@
       <c r="Q2" s="145"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="404"/>
-      <c r="B3" s="388"/>
-      <c r="C3" s="413"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="410"/>
+      <c r="A3" s="408"/>
+      <c r="B3" s="392"/>
+      <c r="C3" s="417"/>
+      <c r="D3" s="411"/>
+      <c r="E3" s="414"/>
       <c r="F3" s="161"/>
       <c r="G3" s="145"/>
       <c r="H3" s="145"/>
@@ -17636,15 +17531,15 @@
       <c r="Q3" s="145"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A4" s="405"/>
+      <c r="A4" s="409"/>
       <c r="B4" s="30" t="s">
         <v>278</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="408"/>
-      <c r="E4" s="411"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="415"/>
       <c r="F4" s="161"/>
       <c r="G4" s="145"/>
       <c r="H4" s="145"/>
@@ -17677,7 +17572,7 @@
       <c r="P5" s="145"/>
       <c r="Q5" s="145"/>
     </row>
-    <row r="6" spans="1:17" ht="21.95" customHeight="1">
+    <row r="6" spans="1:17" ht="21.9" customHeight="1">
       <c r="A6" s="157"/>
       <c r="B6" s="157"/>
       <c r="C6" s="158"/>
@@ -17696,7 +17591,7 @@
       <c r="P6" s="145"/>
       <c r="Q6" s="145"/>
     </row>
-    <row r="7" spans="1:17" ht="21.95" customHeight="1">
+    <row r="7" spans="1:17" ht="21.9" customHeight="1">
       <c r="A7" s="157"/>
       <c r="B7" s="157"/>
       <c r="C7" s="158"/>
@@ -17715,7 +17610,7 @@
       <c r="P7" s="145"/>
       <c r="Q7" s="145"/>
     </row>
-    <row r="8" spans="1:17" ht="21.95" customHeight="1">
+    <row r="8" spans="1:17" ht="21.9" customHeight="1">
       <c r="A8" s="157"/>
       <c r="B8" s="157"/>
       <c r="C8" s="158"/>
@@ -17734,7 +17629,7 @@
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
     </row>
-    <row r="9" spans="1:17" ht="21.95" customHeight="1">
+    <row r="9" spans="1:17" ht="21.9" customHeight="1">
       <c r="A9" s="157"/>
       <c r="B9" s="157"/>
       <c r="C9" s="158"/>
@@ -17753,7 +17648,7 @@
       <c r="P9" s="145"/>
       <c r="Q9" s="145"/>
     </row>
-    <row r="10" spans="1:17" ht="21.95" customHeight="1">
+    <row r="10" spans="1:17" ht="21.9" customHeight="1">
       <c r="A10" s="157"/>
       <c r="B10" s="157"/>
       <c r="C10" s="158"/>
@@ -17772,7 +17667,7 @@
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
     </row>
-    <row r="11" spans="1:17" ht="21.95" customHeight="1">
+    <row r="11" spans="1:17" ht="21.9" customHeight="1">
       <c r="A11" s="157"/>
       <c r="B11" s="157"/>
       <c r="C11" s="158"/>
@@ -17791,7 +17686,7 @@
       <c r="P11" s="145"/>
       <c r="Q11" s="145"/>
     </row>
-    <row r="12" spans="1:17" ht="21.95" customHeight="1">
+    <row r="12" spans="1:17" ht="21.9" customHeight="1">
       <c r="A12" s="157"/>
       <c r="B12" s="157"/>
       <c r="C12" s="158"/>
@@ -17829,7 +17724,7 @@
       <c r="P13" s="145"/>
       <c r="Q13" s="145"/>
     </row>
-    <row r="14" spans="1:17" ht="21.95" customHeight="1">
+    <row r="14" spans="1:17" ht="21.9" customHeight="1">
       <c r="A14" s="157"/>
       <c r="B14" s="157"/>
       <c r="C14" s="158"/>
@@ -17848,7 +17743,7 @@
       <c r="P14" s="145"/>
       <c r="Q14" s="145"/>
     </row>
-    <row r="15" spans="1:17" ht="21.95" customHeight="1">
+    <row r="15" spans="1:17" ht="21.9" customHeight="1">
       <c r="A15" s="157"/>
       <c r="B15" s="157"/>
       <c r="C15" s="158"/>
@@ -17867,7 +17762,7 @@
       <c r="P15" s="145"/>
       <c r="Q15" s="145"/>
     </row>
-    <row r="16" spans="1:17" ht="21.95" customHeight="1">
+    <row r="16" spans="1:17" ht="21.9" customHeight="1">
       <c r="A16" s="157"/>
       <c r="B16" s="157"/>
       <c r="C16" s="158"/>
@@ -17905,7 +17800,7 @@
       <c r="P17" s="145"/>
       <c r="Q17" s="145"/>
     </row>
-    <row r="18" spans="1:17" ht="21.95" customHeight="1">
+    <row r="18" spans="1:17" ht="21.9" customHeight="1">
       <c r="A18" s="157"/>
       <c r="B18" s="157"/>
       <c r="C18" s="158"/>
@@ -17943,7 +17838,7 @@
       <c r="P19" s="145"/>
       <c r="Q19" s="145"/>
     </row>
-    <row r="20" spans="1:17" ht="21.95" customHeight="1">
+    <row r="20" spans="1:17" ht="21.9" customHeight="1">
       <c r="A20" s="157"/>
       <c r="B20" s="157"/>
       <c r="C20" s="158"/>
@@ -17962,7 +17857,7 @@
       <c r="P20" s="145"/>
       <c r="Q20" s="145"/>
     </row>
-    <row r="21" spans="1:17" ht="21.95" customHeight="1">
+    <row r="21" spans="1:17" ht="21.9" customHeight="1">
       <c r="A21" s="157"/>
       <c r="B21" s="157"/>
       <c r="C21" s="158"/>
@@ -17981,7 +17876,7 @@
       <c r="P21" s="145"/>
       <c r="Q21" s="145"/>
     </row>
-    <row r="22" spans="1:17" ht="21.95" customHeight="1">
+    <row r="22" spans="1:17" ht="21.9" customHeight="1">
       <c r="A22" s="157"/>
       <c r="B22" s="157"/>
       <c r="C22" s="158"/>
@@ -18000,110 +17895,110 @@
       <c r="P22" s="145"/>
       <c r="Q22" s="145"/>
     </row>
-    <row r="23" spans="1:17" ht="21.95" customHeight="1">
+    <row r="23" spans="1:17" ht="21.9" customHeight="1">
       <c r="A23" s="157"/>
       <c r="B23" s="157"/>
       <c r="C23" s="158"/>
       <c r="D23" s="158"/>
       <c r="E23" s="159"/>
     </row>
-    <row r="24" spans="1:17" ht="21.95" customHeight="1">
+    <row r="24" spans="1:17" ht="21.9" customHeight="1">
       <c r="A24" s="157"/>
       <c r="B24" s="157"/>
       <c r="C24" s="158"/>
       <c r="D24" s="158"/>
       <c r="E24" s="159"/>
     </row>
-    <row r="25" spans="1:17" ht="21.95" customHeight="1"/>
-    <row r="26" spans="1:17" ht="21.95" customHeight="1"/>
-    <row r="27" spans="1:17" ht="21.95" customHeight="1"/>
-    <row r="28" spans="1:17" ht="21.95" customHeight="1"/>
-    <row r="29" spans="1:17" ht="21.95" customHeight="1"/>
-    <row r="30" spans="1:17" ht="21.95" customHeight="1"/>
-    <row r="31" spans="1:17" ht="21.95" customHeight="1"/>
-    <row r="32" spans="1:17" ht="21.95" customHeight="1"/>
-    <row r="33" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="34" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="35" spans="10:11" ht="21.95" customHeight="1"/>
+    <row r="25" spans="1:17" ht="21.9" customHeight="1"/>
+    <row r="26" spans="1:17" ht="21.9" customHeight="1"/>
+    <row r="27" spans="1:17" ht="21.9" customHeight="1"/>
+    <row r="28" spans="1:17" ht="21.9" customHeight="1"/>
+    <row r="29" spans="1:17" ht="21.9" customHeight="1"/>
+    <row r="30" spans="1:17" ht="21.9" customHeight="1"/>
+    <row r="31" spans="1:17" ht="21.9" customHeight="1"/>
+    <row r="32" spans="1:17" ht="21.9" customHeight="1"/>
+    <row r="33" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="34" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="35" spans="10:11" ht="21.9" customHeight="1"/>
     <row r="37" spans="10:11" ht="22.5" customHeight="1"/>
     <row r="38" spans="10:11" ht="33.75" customHeight="1"/>
-    <row r="39" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="40" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="41" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="42" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="43" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="44" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="45" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="46" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="47" spans="10:11" ht="21.95" customHeight="1">
+    <row r="39" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="40" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="41" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="42" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="43" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="44" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="45" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="46" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="47" spans="10:11" ht="21.9" customHeight="1">
       <c r="J47" s="35"/>
       <c r="K47" s="35"/>
     </row>
-    <row r="48" spans="10:11" ht="21.95" customHeight="1"/>
-    <row r="49" ht="21.95" customHeight="1"/>
-    <row r="50" ht="21.95" customHeight="1"/>
-    <row r="51" ht="21.95" customHeight="1"/>
-    <row r="52" ht="21.95" customHeight="1"/>
-    <row r="53" ht="21.95" customHeight="1"/>
-    <row r="54" ht="21.95" customHeight="1"/>
-    <row r="55" ht="21.95" customHeight="1"/>
-    <row r="56" ht="21.95" customHeight="1"/>
-    <row r="57" ht="21.95" customHeight="1"/>
-    <row r="58" ht="21.95" customHeight="1"/>
-    <row r="59" ht="21.95" customHeight="1"/>
-    <row r="60" ht="21.95" customHeight="1"/>
-    <row r="61" ht="21.95" customHeight="1"/>
-    <row r="62" ht="21.95" customHeight="1"/>
-    <row r="63" ht="21.95" customHeight="1"/>
-    <row r="64" ht="21.95" customHeight="1"/>
-    <row r="65" ht="21.95" customHeight="1"/>
-    <row r="66" ht="21.95" customHeight="1"/>
-    <row r="67" ht="21.95" customHeight="1"/>
-    <row r="68" ht="21.95" customHeight="1"/>
-    <row r="69" ht="21.95" customHeight="1"/>
-    <row r="70" ht="21.95" customHeight="1"/>
-    <row r="71" ht="21.95" customHeight="1"/>
-    <row r="72" ht="21.95" customHeight="1"/>
-    <row r="73" ht="21.95" customHeight="1"/>
-    <row r="74" ht="21.95" customHeight="1"/>
-    <row r="75" ht="21.95" customHeight="1"/>
-    <row r="76" ht="21.95" customHeight="1"/>
-    <row r="77" ht="21.95" customHeight="1"/>
-    <row r="78" ht="21.95" customHeight="1"/>
-    <row r="79" ht="21.95" customHeight="1"/>
-    <row r="80" ht="21.95" customHeight="1"/>
-    <row r="81" ht="21.95" customHeight="1"/>
-    <row r="82" ht="21.95" customHeight="1"/>
-    <row r="83" ht="21.95" customHeight="1"/>
-    <row r="84" ht="21.95" customHeight="1"/>
-    <row r="85" ht="21.95" customHeight="1"/>
-    <row r="86" ht="21.95" customHeight="1"/>
-    <row r="87" ht="21.95" customHeight="1"/>
-    <row r="88" ht="21.95" customHeight="1"/>
-    <row r="89" ht="21.95" customHeight="1"/>
-    <row r="90" ht="21.95" customHeight="1"/>
-    <row r="91" ht="21.95" customHeight="1"/>
-    <row r="92" ht="21.95" customHeight="1"/>
-    <row r="93" ht="21.95" customHeight="1"/>
-    <row r="94" ht="21.95" customHeight="1"/>
-    <row r="95" ht="21.95" customHeight="1"/>
-    <row r="96" ht="21.95" customHeight="1"/>
-    <row r="97" ht="21.95" customHeight="1"/>
-    <row r="98" ht="21.95" customHeight="1"/>
-    <row r="99" ht="21.95" customHeight="1"/>
-    <row r="100" ht="21.95" customHeight="1"/>
-    <row r="101" ht="21.95" customHeight="1"/>
-    <row r="102" ht="21.95" customHeight="1"/>
-    <row r="103" ht="21.95" customHeight="1"/>
-    <row r="104" ht="21.95" customHeight="1"/>
-    <row r="105" ht="21.95" customHeight="1"/>
-    <row r="106" ht="21.95" customHeight="1"/>
-    <row r="107" ht="21.95" customHeight="1"/>
-    <row r="108" ht="21.95" customHeight="1"/>
-    <row r="109" ht="21.95" customHeight="1"/>
-    <row r="110" ht="21.95" customHeight="1"/>
-    <row r="111" ht="21.95" customHeight="1"/>
-    <row r="112" ht="21.95" customHeight="1"/>
+    <row r="48" spans="10:11" ht="21.9" customHeight="1"/>
+    <row r="49" ht="21.9" customHeight="1"/>
+    <row r="50" ht="21.9" customHeight="1"/>
+    <row r="51" ht="21.9" customHeight="1"/>
+    <row r="52" ht="21.9" customHeight="1"/>
+    <row r="53" ht="21.9" customHeight="1"/>
+    <row r="54" ht="21.9" customHeight="1"/>
+    <row r="55" ht="21.9" customHeight="1"/>
+    <row r="56" ht="21.9" customHeight="1"/>
+    <row r="57" ht="21.9" customHeight="1"/>
+    <row r="58" ht="21.9" customHeight="1"/>
+    <row r="59" ht="21.9" customHeight="1"/>
+    <row r="60" ht="21.9" customHeight="1"/>
+    <row r="61" ht="21.9" customHeight="1"/>
+    <row r="62" ht="21.9" customHeight="1"/>
+    <row r="63" ht="21.9" customHeight="1"/>
+    <row r="64" ht="21.9" customHeight="1"/>
+    <row r="65" ht="21.9" customHeight="1"/>
+    <row r="66" ht="21.9" customHeight="1"/>
+    <row r="67" ht="21.9" customHeight="1"/>
+    <row r="68" ht="21.9" customHeight="1"/>
+    <row r="69" ht="21.9" customHeight="1"/>
+    <row r="70" ht="21.9" customHeight="1"/>
+    <row r="71" ht="21.9" customHeight="1"/>
+    <row r="72" ht="21.9" customHeight="1"/>
+    <row r="73" ht="21.9" customHeight="1"/>
+    <row r="74" ht="21.9" customHeight="1"/>
+    <row r="75" ht="21.9" customHeight="1"/>
+    <row r="76" ht="21.9" customHeight="1"/>
+    <row r="77" ht="21.9" customHeight="1"/>
+    <row r="78" ht="21.9" customHeight="1"/>
+    <row r="79" ht="21.9" customHeight="1"/>
+    <row r="80" ht="21.9" customHeight="1"/>
+    <row r="81" ht="21.9" customHeight="1"/>
+    <row r="82" ht="21.9" customHeight="1"/>
+    <row r="83" ht="21.9" customHeight="1"/>
+    <row r="84" ht="21.9" customHeight="1"/>
+    <row r="85" ht="21.9" customHeight="1"/>
+    <row r="86" ht="21.9" customHeight="1"/>
+    <row r="87" ht="21.9" customHeight="1"/>
+    <row r="88" ht="21.9" customHeight="1"/>
+    <row r="89" ht="21.9" customHeight="1"/>
+    <row r="90" ht="21.9" customHeight="1"/>
+    <row r="91" ht="21.9" customHeight="1"/>
+    <row r="92" ht="21.9" customHeight="1"/>
+    <row r="93" ht="21.9" customHeight="1"/>
+    <row r="94" ht="21.9" customHeight="1"/>
+    <row r="95" ht="21.9" customHeight="1"/>
+    <row r="96" ht="21.9" customHeight="1"/>
+    <row r="97" ht="21.9" customHeight="1"/>
+    <row r="98" ht="21.9" customHeight="1"/>
+    <row r="99" ht="21.9" customHeight="1"/>
+    <row r="100" ht="21.9" customHeight="1"/>
+    <row r="101" ht="21.9" customHeight="1"/>
+    <row r="102" ht="21.9" customHeight="1"/>
+    <row r="103" ht="21.9" customHeight="1"/>
+    <row r="104" ht="21.9" customHeight="1"/>
+    <row r="105" ht="21.9" customHeight="1"/>
+    <row r="106" ht="21.9" customHeight="1"/>
+    <row r="107" ht="21.9" customHeight="1"/>
+    <row r="108" ht="21.9" customHeight="1"/>
+    <row r="109" ht="21.9" customHeight="1"/>
+    <row r="110" ht="21.9" customHeight="1"/>
+    <row r="111" ht="21.9" customHeight="1"/>
+    <row r="112" ht="21.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
@@ -18124,73 +18019,73 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A1" s="414" t="s">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1">
+      <c r="A1" s="418" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="415"/>
-      <c r="C1" s="415"/>
-      <c r="D1" s="415"/>
-      <c r="E1" s="415"/>
-      <c r="F1" s="416"/>
+      <c r="B1" s="419"/>
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
+      <c r="F1" s="420"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A2" s="417" t="s">
+      <c r="A2" s="421" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="418"/>
-      <c r="C2" s="418"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="418"/>
-      <c r="F2" s="419"/>
+      <c r="B2" s="422"/>
+      <c r="C2" s="422"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="423"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="420" t="s">
+      <c r="A3" s="424" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="427" t="s">
+      <c r="B3" s="431" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="428"/>
-      <c r="D3" s="422" t="s">
+      <c r="C3" s="432"/>
+      <c r="D3" s="426" t="s">
         <v>300</v>
       </c>
-      <c r="E3" s="424" t="s">
+      <c r="E3" s="428" t="s">
         <v>306</v>
       </c>
-      <c r="F3" s="426" t="s">
+      <c r="F3" s="430" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="421"/>
-      <c r="B4" s="388"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="410"/>
+      <c r="A4" s="425"/>
+      <c r="B4" s="392"/>
+      <c r="C4" s="433"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="428"/>
+      <c r="F4" s="414"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="401"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="30" t="s">
         <v>278</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="423"/>
-      <c r="E5" s="425"/>
-      <c r="F5" s="411"/>
+      <c r="D5" s="427"/>
+      <c r="E5" s="429"/>
+      <c r="F5" s="415"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1">
       <c r="A6" s="194"/>
@@ -18385,20 +18280,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="434" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="431"/>
-      <c r="C1" s="432"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="436"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1">
       <c r="A2" s="26" t="s">
